--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -3482,6 +3482,18 @@
       </rPr>
       <t>开立【2支头孢3+5%葡萄糖1袋】长期组合医嘱，上午九点下午三点各一次，用法为静脉注射，3天</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期医嘱频次类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天2次/早9/下3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3868,16 +3880,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -4073,6 +4085,21 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4165,7 +4192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -3494,6 +3494,26 @@
   </si>
   <si>
     <t>每天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输液辅材（infusionAssistMaterial）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅材收费方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按频次收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只收一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3880,16 +3900,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="57.5" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -4024,87 +4044,114 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>56</v>
+      <c r="B37" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="3" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -3478,6 +3478,380 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">2016-12-29 10:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开立【2支头孢3+5%葡萄糖1袋】长期组合医嘱，上午九点下午三点各一次，用法为静脉注射，3天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-01 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成二级护理执行条目，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-01 10:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CT室检查安排员user555安排该检查的检查时间为2017-01-02 14:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收费处岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>222</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成了一条执行条目（出院结算），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-527</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的费用条目】，【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态为已出院】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核磁检查室（dept555）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核磁检查室安排检查员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff777</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室安排检查员-周瑜）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核磁检查室检查师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室检查师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲁肃）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>脑核磁计费项目（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>brainHCChargeItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF2A00FF"/>
@@ -3523,7 +3897,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）一次350元</t>
+      <t>）一次150元</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3579,12 +3953,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>脑CT（brainCTInspectOrderType）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 10:10 </t>
+    <r>
+      <t>脑核磁（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>brainHCInspectItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查（inspectOrderType）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-01 09:30 </t>
     </r>
     <r>
       <rPr>
@@ -3613,57 +4012,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>开立【2支头孢3+5%葡萄糖1袋】长期组合医嘱，上午九点下午三点各一次，用法为静脉注射，3天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-01 09:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开立【脑CT】检查医嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-01 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+      <t>开立脑部检查医嘱，包含两项检查：脑部CT和脑部核磁，分别由CT室和核磁检查室执行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-01 09:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>责任护士</t>
     </r>
@@ -3683,35 +4046,14 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成二级护理执行条目，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-01 09:40 </t>
+      </rPr>
+      <t>核对脑部检查医嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-01 09:45 </t>
     </r>
     <r>
       <rPr>
@@ -3740,96 +4082,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>核对【脑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】检查医嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-01 09:45 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发送【脑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】检查医嘱到CT室</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-01 10:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CT室检查安排员user555安排该检查的检查时间为2017-01-02 14:00</t>
+      <t>发送脑部检查医嘱到CT室和核磁检查室</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-01 10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核磁检查室检查安排员user777安排该检查的检查时间为2017-01-03 14:00</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3873,6 +4142,60 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
+      <t>-150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的脑CT检查的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-03 15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核磁检查室检查员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认检查已完成，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>-350</t>
     </r>
     <r>
@@ -3883,104 +4206,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>元的脑CT检查的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>收费处岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>222</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成了一条执行条目（出院结算），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-527</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的费用条目】，【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态为已出院】</t>
+      <t>元的脑核磁检查的收费条目】</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4368,11 +4594,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B54" sqref="A2:B54"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4416,239 +4640,264 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
-        <v>26</v>
+      <c r="B30" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
-        <v>80</v>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>42</v>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
-        <v>46</v>
+      <c r="B36" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>54</v>
+      <c r="B46" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>77</v>
+      <c r="B49" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="3" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4741,10 +4990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B28"/>
+  <dimension ref="B1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B28"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4764,7 +5013,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
@@ -4834,56 +5083,66 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4898,8 +5157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4939,7 +5198,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -3544,10 +3544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-01-09 14:30 责任医生002创建患者001的临时医嘱单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -4539,6 +4535,84 @@
       </rPr>
       <t>状态为已出院】</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的临时医嘱单，并整理病历夹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生002将患者001的病历夹发送给并病案室进行质控</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-10 09:30 病案室质控岗601确定患者001病历书写合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-11 10:30 病案室岗位602将患者001的病历进行归档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4930,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4992,52 +5066,52 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -5343,8 +5417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5377,7 +5451,7 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
@@ -5437,7 +5511,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
@@ -5452,7 +5526,7 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
@@ -5482,7 +5556,7 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
@@ -5512,12 +5586,12 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
@@ -5527,7 +5601,7 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
@@ -5537,7 +5611,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
@@ -5564,10 +5638,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5607,12 +5681,27 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
-    <sheet name="入院阶段" sheetId="1" r:id="rId2"/>
-    <sheet name="治疗阶段" sheetId="2" r:id="rId3"/>
-    <sheet name="出院阶段" sheetId="3" r:id="rId4"/>
+    <sheet name="门诊看病" sheetId="5" r:id="rId2"/>
+    <sheet name="入院阶段" sheetId="1" r:id="rId3"/>
+    <sheet name="治疗阶段" sheetId="2" r:id="rId4"/>
+    <sheet name="出院阶段" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -4613,6 +4614,340 @@
   </si>
   <si>
     <t>2017-01-11 10:30 病案室岗位602将患者001的病历进行归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内分泌门诊（dept999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内分泌门诊挂号岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（内分泌门诊挂号岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄忠）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通挂号费(ordinaryVoucherTypeChargeItem)一次7元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊看病：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊医生排班表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内分泌门诊一诊室（room901）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/28日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊就诊中状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊执行中状态，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊就诊中状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂号，被安排内分泌门诊一诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）就诊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂号，被安排内分泌门诊一诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）就诊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊执行中状态，诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）处于空闲中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-28 09:50 测试患者003挂号，被安排内分泌门诊一诊室（room901）就诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-28 09:55 叫号，测试患者003为门诊就诊中状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5002,10 +5337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5060,300 +5395,330 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
-        <v>110</v>
+      <c r="B19" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>24</v>
+      <c r="B21" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
-        <v>28</v>
+      <c r="A27" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
-        <v>77</v>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>23</v>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
-        <v>19</v>
+      <c r="B35" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
-        <v>20</v>
+      <c r="B36" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="2" t="s">
-        <v>67</v>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>32</v>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
-        <v>36</v>
+      <c r="B42" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>44</v>
+      <c r="B53" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>64</v>
+      <c r="B56" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
-        <v>66</v>
+      <c r="A57" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="2" t="s">
-        <v>96</v>
+      <c r="B65" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="3" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="3" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5365,10 +5730,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="87.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5413,7 +5879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B41"/>
   <sheetViews>
@@ -5636,7 +6102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B12"/>
   <sheetViews>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -5291,7 +5291,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>挂号，为复诊，，被安排内分泌门诊一诊室（</t>
+      <t>挂号，为复诊，被安排内分泌门诊一诊室（</t>
     </r>
     <r>
       <rPr>
@@ -5331,6 +5331,10 @@
       </rPr>
       <t>元</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/29日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5720,10 +5724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6104,6 +6108,11 @@
         <v>130</v>
       </c>
     </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6115,8 +6124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6296,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E6" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -4651,7 +4651,165 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2016-12-28 09:45 </t>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五医生doctor002（内泌五医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>貂蝉）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/29日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-27 00:00 系统自动修改患者001、002、003为离院状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:00 测试患者001挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:10 测试患者002挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:20 叫号，测试患者001为门诊就诊中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:35 叫号，测试患者001为门诊执行中状态，测试患者002为门诊就诊中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:45 叫号，测试患者002为门诊执行中状态，诊室（room901）处于空闲中</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:46 药房摆药岗位staff301为患者001摆药，收患者001 60元</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:48 药房摆药岗位staff301确认患者001取药</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:50 测试患者003挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:55 叫号，测试患者003为门诊就诊中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 10:05 患者001重新排号</t>
+  </si>
+  <si>
+    <t>2016-12-27 10:15 叫号，测试患者001为门诊就诊中状态，测试患者002为门诊执行中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 10:20 叫号，测试患者001为门诊执行中状态，诊室（room901）处于空闲中</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂号，为复诊，被安排内分泌门诊一诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）就诊，系统自动关联上次就诊记录，收挂号费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:05 </t>
     </r>
     <r>
       <rPr>
@@ -4670,17 +4828,189 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊执行中状态，诊室（</t>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊就诊中状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开药品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临嘱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开住院医嘱，患者001处于待住院登记状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诊室（</t>
     </r>
     <r>
       <rPr>
@@ -4701,640 +5031,6 @@
       </rPr>
       <t>）处于空闲中</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-28 09:55 叫号，测试患者003为门诊就诊中状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂号，被安排内分泌门诊一诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）就诊，系统创建账户，并收挂号费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五医生doctor002（内泌五医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>貂蝉）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者001开药品001临嘱2盒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:48 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取药</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:46 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者001摆药，收患者001 60元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂号，被安排内分泌门诊一诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）就诊，系统创建账户，并收挂号费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患者001重新排号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊就诊中状态，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊执行中状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-28 10:20 叫号，测试患者001为门诊执行中状态，诊室（room901）处于空闲中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 00:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统自动修改患者001、002、003为离院状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊就诊中状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:35 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊执行中状态，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊就诊中状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-29 09:05 叫号，测试患者001为门诊就诊中状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-29 09:15 叫号，测试患者001为门诊执行中状态，诊室（room901）处于空闲中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂号，被安排内分泌门诊一诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）就诊，系统创建账户，并收挂号费7元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 09:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂号，为复诊，被安排内分泌门诊一诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）就诊，系统自动关联上次就诊记录，收挂号费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/12/29日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5726,7 +5422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
@@ -5853,7 +5549,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -6110,7 +5806,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -6122,10 +5818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B26"/>
+  <dimension ref="B1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6140,91 +5836,93 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="6"/>
+      <c r="B20" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
@@ -6243,6 +5941,9 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -3286,6 +3286,1841 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">2016-12-28 14:20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>002创建【入院记录】，修改患者001的【主诉】为：患者咳嗽发烧三天，体温38.5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>002对【入院记录】签名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-07 10:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开出院医嘱，出院时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2017-01-09</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院处送诊人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（住院处送诊人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曹操）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收费处收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（收费处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张飞）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff301</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵云）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药房配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（药房配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关羽）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室安排检查员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室安排检查员-吕玲绮）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室检查师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室检查师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张合）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核磁检查室安排检查员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff501</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（核磁检查室安排检查员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周瑜）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核磁检查室检查师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff502</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（核磁检查室检查师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲁肃）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质控岗位staff601（质控岗位-刘备）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病案室岗位staff602（病案室岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙权）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 11:15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>301</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成摆药，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的药品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的收费条目，并创建相应的成本条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 13:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药房配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行配液，【系统产生-240和-15两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 08:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药房配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行配液（上午九点），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-31 08:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药房配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行配液（上午九点），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-01 10:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CT室检查安排员user401安排该检查的检查时间为2017-01-02 14:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-01 10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核磁检查室检查安排员user501安排该检查的检查时间为2017-01-03 14:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-03 15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核磁检查室检查员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user502</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认检查已完成，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的脑核磁检查的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2017-01-02 14:40 CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室检查员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认检查已完成，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的脑CT检查的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收费处岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成了一条执行条目（出院结算），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-527</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的费用条目】，【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态为已出院】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的临时医嘱单，并整理病历夹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生002将患者001的病历夹发送给并病案室进行质控</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-10 09:30 病案室质控岗601确定患者001病历书写合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-11 10:30 病案室岗位602将患者001的病历进行归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内分泌门诊（dept999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内分泌门诊挂号岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（内分泌门诊挂号岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄忠）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通挂号费(ordinaryVoucherTypeChargeItem)一次7元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊看病：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊医生排班表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内分泌门诊一诊室（room901）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/28日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五医生doctor002（内泌五医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>貂蝉）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/29日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-27 00:00 系统自动修改患者001、002、003为离院状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:00 测试患者001挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:10 测试患者002挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:20 叫号，测试患者001为门诊就诊中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:35 叫号，测试患者001为门诊执行中状态，测试患者002为门诊就诊中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:45 叫号，测试患者002为门诊执行中状态，诊室（room901）处于空闲中</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:46 药房摆药岗位staff301为患者001摆药，收患者001 60元</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:48 药房摆药岗位staff301确认患者001取药</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:50 测试患者003挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:55 叫号，测试患者003为门诊就诊中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 10:05 患者001重新排号</t>
+  </si>
+  <si>
+    <t>2016-12-27 10:15 叫号，测试患者001为门诊就诊中状态，测试患者002为门诊执行中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 10:20 叫号，测试患者001为门诊执行中状态，诊室（room901）处于空闲中</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂号，为复诊，被安排内分泌门诊一诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）就诊，系统自动关联上次就诊记录，收挂号费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊就诊中状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开住院医嘱，患者001处于待住院登记状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）处于空闲中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开药品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临嘱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:27 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建主诉：患者咳嗽发烧两天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建门诊记录，修改患者001的主诉为：患者咳嗽发烧两天，体温37.5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定患者001的门诊记录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">2016-12-28 14:05 </t>
     </r>
     <r>
@@ -3337,1699 +5172,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>创建【主诉】：患者咳嗽发烧三天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 14:20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>002创建【入院记录】，修改患者001的【主诉】为：患者咳嗽发烧三天，体温38.5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>002对【入院记录】签名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-07 10:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开出院医嘱，出院时间为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2017-01-09</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>住院处送诊人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff101</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（住院处送诊人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>曹操）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收费处收费员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（收费处</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张飞）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赵云）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药房配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（药房配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关羽）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>室安排检查员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff401</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>室安排检查员-吕玲绮）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>室检查师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff402</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>室检查师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张合）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核磁检查室安排检查员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff501</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（核磁检查室安排检查员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周瑜）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核磁检查室检查师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff502</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（核磁检查室检查师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鲁肃）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质控岗位staff601（质控岗位-刘备）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>病案室岗位staff602（病案室岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孙权）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 11:15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成摆药，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的药品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的收费条目，并创建相应的成本条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 13:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药房配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行配液，【系统产生-240和-15两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 08:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药房配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行配液（上午九点），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-31 08:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药房配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行配液（上午九点），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-01 10:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CT室检查安排员user401安排该检查的检查时间为2017-01-02 14:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-01 10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核磁检查室检查安排员user501安排该检查的检查时间为2017-01-03 14:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-03 15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核磁检查室检查员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user502</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认检查已完成，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-350</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元的脑核磁检查的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2017-01-02 14:40 CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>室检查员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user402</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认检查已完成，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元的脑CT检查的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>收费处岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成了一条执行条目（出院结算），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-527</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的费用条目】，【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态为已出院】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的临时医嘱单，并整理病历夹</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生002将患者001的病历夹发送给并病案室进行质控</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-10 09:30 病案室质控岗601确定患者001病历书写合格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-11 10:30 病案室岗位602将患者001的病历进行归档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内分泌门诊（dept999）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内分泌门诊挂号岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（内分泌门诊挂号岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄忠）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通挂号费(ordinaryVoucherTypeChargeItem)一次7元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊看病：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊医生排班表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内分泌门诊一诊室（room901）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/12/28日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五医生doctor002（内泌五医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>貂蝉）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/12/29日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-27 00:00 系统自动修改患者001、002、003为离院状态</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:00 测试患者001挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:10 测试患者002挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:20 叫号，测试患者001为门诊就诊中状态</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:35 叫号，测试患者001为门诊执行中状态，测试患者002为门诊就诊中状态</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:45 叫号，测试患者002为门诊执行中状态，诊室（room901）处于空闲中</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:46 药房摆药岗位staff301为患者001摆药，收患者001 60元</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:48 药房摆药岗位staff301确认患者001取药</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:50 测试患者003挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:55 叫号，测试患者003为门诊就诊中状态</t>
-  </si>
-  <si>
-    <t>2016-12-27 10:05 患者001重新排号</t>
-  </si>
-  <si>
-    <t>2016-12-27 10:15 叫号，测试患者001为门诊就诊中状态，测试患者002为门诊执行中状态</t>
-  </si>
-  <si>
-    <t>2016-12-27 10:20 叫号，测试患者001为门诊执行中状态，诊室（room901）处于空闲中</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂号，为复诊，被安排内分泌门诊一诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）就诊，系统自动关联上次就诊记录，收挂号费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊就诊中状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开药品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>临嘱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开住院医嘱，患者001处于待住院登记状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）处于空闲中</t>
+      <t>创建/修改【主诉】：患者咳嗽发烧三天</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5422,14 +5565,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="2" max="2" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -5479,12 +5622,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -5494,52 +5637,52 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -5549,7 +5692,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -5559,7 +5702,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -5609,7 +5752,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -5796,17 +5939,17 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5818,120 +5961,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B27"/>
+  <dimension ref="B1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="95.125" customWidth="1"/>
+    <col min="2" max="2" width="103.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
+      <c r="B21" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
+      <c r="B22" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="6"/>
@@ -5944,6 +6093,15 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5957,7 +6115,7 @@
   <dimension ref="B1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6006,8 +6164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E6" sqref="E4:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6040,7 +6198,7 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
@@ -6060,17 +6218,17 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
@@ -6100,7 +6258,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
@@ -6115,7 +6273,7 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
@@ -6145,7 +6303,7 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
@@ -6175,12 +6333,12 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
@@ -6190,7 +6348,7 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
@@ -6200,7 +6358,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
@@ -6230,7 +6388,7 @@
   <dimension ref="B1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B1" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6245,7 +6403,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
@@ -6270,27 +6428,27 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -5565,8 +5565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5963,8 +5963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6164,7 +6164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -4978,6 +4978,98 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">2016-12-27 09:32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定患者001的门诊记录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 14:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建/修改【主诉】：患者咳嗽发烧三天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">2016-12-27 09:27 </t>
     </r>
     <r>
@@ -5032,6 +5124,79 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">2016-12-27 09:28 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建诊断：甲状腺功能亢进（甲亢）、低血糖（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.5mmol/L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">2016-12-27 09:30 </t>
     </r>
     <r>
@@ -5080,99 +5245,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>创建门诊记录，修改患者001的主诉为：患者咳嗽发烧两天，体温37.5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:32 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>锁定患者001的门诊记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 14:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>创建/修改【主诉】：患者咳嗽发烧三天</t>
+      <t>创建门诊记录，修改患者001的主诉为：患者咳嗽发烧两天，体温37.5，引用患者两条诊断信息</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5961,10 +6034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B30"/>
+  <dimension ref="B1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B23"/>
+      <selection activeCell="B3" sqref="B3:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5999,91 +6072,93 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
@@ -6102,6 +6177,9 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6218,7 +6296,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -4500,12 +4500,6 @@
     <t>2016-12-27 09:35 叫号，测试患者001为门诊执行中状态，测试患者002为门诊就诊中状态</t>
   </si>
   <si>
-    <t>2016-12-27 09:45 叫号，测试患者002为门诊执行中状态，诊室（room901）处于空闲中</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:46 药房摆药岗位staff301为患者001摆药，收患者001 60元</t>
-  </si>
-  <si>
     <t>2016-12-27 09:48 药房摆药岗位staff301确认患者001取药</t>
   </si>
   <si>
@@ -4732,6 +4726,527 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">2016-12-27 09:32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定患者001的门诊记录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 14:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建/修改【主诉】：患者咳嗽发烧三天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:27 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建主诉：患者咳嗽发烧两天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:28 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建诊断：甲状腺功能亢进（甲亢）、低血糖（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.5mmol/L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建门诊记录，修改患者001的主诉为：患者咳嗽发烧两天，体温37.5，引用患者两条诊断信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院收费处收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（住院收费处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张飞）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院收费处部门（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept222</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五接诊护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（内泌五接诊护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大乔）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病案室（dept666）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊收费部门收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff701</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（门诊收费部门收费员-魏延）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊收费部门（dept777）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊执行中状态，诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）处于空闲中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">2016-12-27 09:25 </t>
     </r>
     <r>
@@ -4808,7 +5323,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -4824,53 +5339,71 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2016-12-27 09:32 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>锁定患者001的门诊记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 14:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
+      <t xml:space="preserve">2016-12-27 09:42 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊收费部门收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff701</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对患者001的药品临嘱收费30元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:46 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff301</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
     </r>
     <r>
       <rPr>
@@ -4888,405 +5421,9 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>创建/修改【主诉】：患者咳嗽发烧三天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:27 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建主诉：患者咳嗽发烧两天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:28 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建诊断：甲状腺功能亢进（甲亢）、低血糖（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2.5mmol/L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建门诊记录，修改患者001的主诉为：患者咳嗽发烧两天，体温37.5，引用患者两条诊断信息</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>住院收费处收费员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（住院收费处</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张飞）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>住院收费处部门（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept222</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五接诊护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（内泌五接诊护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大乔）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊收费部门收费员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff701</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（门诊收费部门收费员-）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病案室（dept666）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊收费部门（dept777）</t>
+      </rPr>
+      <t>摆药</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5678,8 +5815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5710,7 +5847,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -5730,12 +5867,12 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -5765,7 +5902,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -5810,7 +5947,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -5830,7 +5967,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -6089,11 +6226,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B31"/>
+  <dimension ref="B1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6122,27 +6257,27 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
@@ -6152,71 +6287,73 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="6"/>
+      <c r="B25" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
@@ -6235,6 +6372,9 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6351,7 +6491,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -3584,6 +3584,2513 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">2016-12-29 13:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药房配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行配液，【系统产生-240和-15两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 08:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药房配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行配液（上午九点），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-31 08:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药房配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行配液（上午九点），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-01 10:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CT室检查安排员user401安排该检查的检查时间为2017-01-02 14:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-01 10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核磁检查室检查安排员user501安排该检查的检查时间为2017-01-03 14:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-03 15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核磁检查室检查员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user502</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认检查已完成，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的脑核磁检查的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2017-01-02 14:40 CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室检查员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认检查已完成，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的脑CT检查的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收费处岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成了一条执行条目（出院结算），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-527</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的费用条目】，【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态为已出院】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的临时医嘱单，并整理病历夹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生002将患者001的病历夹发送给并病案室进行质控</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-10 09:30 病案室质控岗601确定患者001病历书写合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-11 10:30 病案室岗位602将患者001的病历进行归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内分泌门诊（dept999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内分泌门诊挂号岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（内分泌门诊挂号岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄忠）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通挂号费(ordinaryVoucherTypeChargeItem)一次7元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊看病：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊医生排班表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内分泌门诊一诊室（room901）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/28日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五医生doctor002（内泌五医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>貂蝉）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/29日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-27 00:00 系统自动修改患者001、002、003为离院状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:00 测试患者001挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:10 测试患者002挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:20 叫号，测试患者001为门诊就诊中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:35 叫号，测试患者001为门诊执行中状态，测试患者002为门诊就诊中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 09:55 叫号，测试患者003为门诊就诊中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 10:05 患者001重新排号</t>
+  </si>
+  <si>
+    <t>2016-12-27 10:15 叫号，测试患者001为门诊就诊中状态，测试患者002为门诊执行中状态</t>
+  </si>
+  <si>
+    <t>2016-12-27 10:20 叫号，测试患者001为门诊执行中状态，诊室（room901）处于空闲中</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂号，为复诊，被安排内分泌门诊一诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）就诊，系统自动关联上次就诊记录，收挂号费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊就诊中状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开住院医嘱，患者001处于待住院登记状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）处于空闲中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 14:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建/修改【主诉】：患者咳嗽发烧三天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:27 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建主诉：患者咳嗽发烧两天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建门诊记录，修改患者001的主诉为：患者咳嗽发烧两天，体温37.5，引用患者两条诊断信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院收费处收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（住院收费处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张飞）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院收费处部门（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept222</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五接诊护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（内泌五接诊护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大乔）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病案室（dept666）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊收费部门（dept777）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊执行中状态，诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）处于空闲中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开药品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临嘱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西药房部门（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中药房部门（dept888）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff301</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（西药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵云）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西药房配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（西药房配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关羽）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭嘉）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊收费部门收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff701</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（门诊收费部门收费员-魏延）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff801</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭嘉）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>葡萄糖液（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugTypeSpec003ChargeItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）一袋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天花粉（drugTypeSpec004ChargeItem）一克5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛根（drugTypeSpec005ChargeItem）一克3元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生地黄（drugTypeSpec006ChargeItem）一克4元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天花粉（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugTypeSpec004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>葛根（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugTypeSpec005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生地黄（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugTypeSpec006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天花粉（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugType004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）药房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中2000克</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>葛根（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugType005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）药房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>克</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生地黄（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugType006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）药房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>克</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:54 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂号，被安排内分泌门诊一诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）就诊，系统创建账户，并收挂号费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定患者001的门诊记录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:28 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建诊断：甲状腺功能亢进（甲亢）、低血糖（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.5mmol/L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:33 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者001开立草药方，关联甲状腺功能亢进（甲亢）、低血糖（2.5mmol/L），开药品004 20克，药品005 15克，药品006 100克</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:42 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊收费部门收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff701</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对患者001的药品临嘱收费575元（药品001，004、005、006）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:46 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff301</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摆药（001）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:48 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取药（001）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:49 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff801</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摆药（004、005、006）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff801</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摆药（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">2016-12-28 11:15 </t>
     </r>
     <r>
@@ -3656,2188 +6163,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>的收费条目，并创建相应的成本条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 13:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药房配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行配液，【系统产生-240和-15两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 08:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药房配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行配液（上午九点），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-31 08:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药房配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行配液（上午九点），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-01 10:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CT室检查安排员user401安排该检查的检查时间为2017-01-02 14:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-01 10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核磁检查室检查安排员user501安排该检查的检查时间为2017-01-03 14:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-03 15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核磁检查室检查员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user502</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认检查已完成，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-350</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元的脑核磁检查的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2017-01-02 14:40 CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>室检查员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user402</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认检查已完成，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元的脑CT检查的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>收费处岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成了一条执行条目（出院结算），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-527</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的费用条目】，【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态为已出院】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的临时医嘱单，并整理病历夹</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生002将患者001的病历夹发送给并病案室进行质控</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-10 09:30 病案室质控岗601确定患者001病历书写合格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-11 10:30 病案室岗位602将患者001的病历进行归档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内分泌门诊（dept999）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内分泌门诊挂号岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（内分泌门诊挂号岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄忠）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通挂号费(ordinaryVoucherTypeChargeItem)一次7元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊看病：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊医生排班表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内分泌门诊一诊室（room901）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/12/28日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五医生doctor002（内泌五医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>貂蝉）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/12/29日内泌五医生doctor002到内分泌门诊一诊室（room901）出诊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-27 00:00 系统自动修改患者001、002、003为离院状态</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:00 测试患者001挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:10 测试患者002挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:20 叫号，测试患者001为门诊就诊中状态</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:35 叫号，测试患者001为门诊执行中状态，测试患者002为门诊就诊中状态</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:48 药房摆药岗位staff301确认患者001取药</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:50 测试患者003挂号，被安排内分泌门诊一诊室（room901）就诊，系统创建账户，并收挂号费7元</t>
-  </si>
-  <si>
-    <t>2016-12-27 09:55 叫号，测试患者003为门诊就诊中状态</t>
-  </si>
-  <si>
-    <t>2016-12-27 10:05 患者001重新排号</t>
-  </si>
-  <si>
-    <t>2016-12-27 10:15 叫号，测试患者001为门诊就诊中状态，测试患者002为门诊执行中状态</t>
-  </si>
-  <si>
-    <t>2016-12-27 10:20 叫号，测试患者001为门诊执行中状态，诊室（room901）处于空闲中</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂号，为复诊，被安排内分泌门诊一诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）就诊，系统自动关联上次就诊记录，收挂号费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊就诊中状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开住院医嘱，患者001处于待住院登记状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）处于空闲中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:32 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>锁定患者001的门诊记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 14:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>创建/修改【主诉】：患者咳嗽发烧三天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:27 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建主诉：患者咳嗽发烧两天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:28 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建诊断：甲状腺功能亢进（甲亢）、低血糖（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2.5mmol/L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建门诊记录，修改患者001的主诉为：患者咳嗽发烧两天，体温37.5，引用患者两条诊断信息</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>住院收费处收费员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（住院收费处</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张飞）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>住院收费处部门（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept222</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五接诊护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（内泌五接诊护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大乔）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病案室（dept666）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊收费部门（dept777）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊执行中状态，诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）处于空闲中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开药品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>临嘱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:42 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊收费部门收费员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff701</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对患者001的药品临嘱收费30元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:46 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>摆药</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>西药房部门（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中药房部门（dept888）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>西药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（西药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赵云）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>西药房配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（西药房配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关羽）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>西药房发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff303</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（西药房发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>郭嘉）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊收费部门收费员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff701</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（门诊收费部门收费员-魏延）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中药房摆发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff801</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（中药房摆发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>郭嘉）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>葡萄糖液（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugTypeSpec003ChargeItem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）一袋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天花粉（drugTypeSpec004ChargeItem）一克5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛根（drugTypeSpec005ChargeItem）一克3元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生地黄（drugTypeSpec006ChargeItem）一克4元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天花粉（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugTypeSpec004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>葛根（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugTypeSpec005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生地黄（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugTypeSpec006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天花粉（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugType004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）药房</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept888</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中2000克</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>葛根（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugType005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）药房</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept888</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>克</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生地黄（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugType006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）药房</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept888</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>克</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6230,7 +6555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -6262,12 +6587,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -6282,17 +6607,17 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -6302,12 +6627,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -6322,22 +6647,22 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
@@ -6372,12 +6697,12 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
@@ -6387,17 +6712,17 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -6427,22 +6752,22 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -6462,7 +6787,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -6487,17 +6812,17 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -6533,17 +6858,17 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -6679,17 +7004,17 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B89" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6701,145 +7026,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B32"/>
+  <dimension ref="B1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="103.75" customWidth="1"/>
+    <col min="2" max="2" width="114.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="6"/>
+      <c r="B27" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="6"/>
+      <c r="B28" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="6"/>
@@ -6852,6 +7186,15 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6915,7 +7258,7 @@
   <dimension ref="B1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6948,7 +7291,7 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
@@ -6968,7 +7311,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
@@ -7008,7 +7351,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
@@ -7023,7 +7366,7 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
@@ -7053,7 +7396,7 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
@@ -7083,12 +7426,12 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
@@ -7098,7 +7441,7 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
@@ -7108,7 +7451,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
@@ -7178,27 +7521,27 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -6163,6 +6163,61 @@
         <scheme val="minor"/>
       </rPr>
       <t>的收费条目，并创建相应的成本条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊输液中心（deptaaa）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊输液中心护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>nursea01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（门诊输液中心护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甘夫人）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6553,10 +6608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6636,384 +6691,394 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
-        <v>26</v>
+      <c r="A35" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="1" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="2" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>42</v>
+      <c r="B72" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="3" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B84" s="2" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B86" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B86" s="3" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B88" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B87" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B89" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B91" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B90" s="3" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B92" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7026,10 +7091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D35"/>
+  <dimension ref="B1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7037,155 +7102,155 @@
     <col min="2" max="2" width="114.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="4" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="4" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="4" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="4" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="4" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="4" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="6"/>
@@ -7195,6 +7260,18 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7257,7 +7334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -3861,7 +3861,2864 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>西药房部门（</t>
+      <t>门诊收费部门收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff701</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（门诊收费部门收费员-魏延）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>葡萄糖液（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugTypeSpec003ChargeItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）一袋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天花粉（drugTypeSpec004ChargeItem）一克5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛根（drugTypeSpec005ChargeItem）一克3元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生地黄（drugTypeSpec006ChargeItem）一克4元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天花粉（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugTypeSpec004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>葛根（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugTypeSpec005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生地黄（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugTypeSpec006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天花粉（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugType004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）药房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中2000克</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>葛根（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugType005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）药房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>克</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生地黄（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugType006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）药房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>克</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:54 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂号，被安排内分泌门诊一诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）就诊，系统创建账户，并收挂号费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定患者001的门诊记录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:28 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建诊断：甲状腺功能亢进（甲亢）、低血糖（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.5mmol/L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:33 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者001开立草药方，关联甲状腺功能亢进（甲亢）、低血糖（2.5mmol/L），开药品004 20克，药品005 15克，药品006 100克</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:42 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊收费部门收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff701</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对患者001的药品临嘱收费575元（药品001，004、005、006）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:48 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取药（001）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:49 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff801</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摆药（004、005、006）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff801</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摆药（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 11:15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>301</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成摆药，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的药品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的收费条目，并创建相应的成本条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊输液中心（deptaaa）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊输液中心护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>nursea01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（门诊输液中心护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甘夫人）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊执行中状态，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊就诊中状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:36 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生doctor002为患者002开立【2支头孢3+5%葡萄糖1袋】长期组合医嘱，上午十一点一次，用法为静脉注射，2天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:43 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊收费部门收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff701</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对患者002的药品长嘱收费524元（药品002，003各两项，003携带的辅材费2项，共6项）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:46 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff301</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和002摆药（001、002、003）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:48 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取药（002、003各两个）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 00:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统自动修改患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为离院状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 10:20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊执行中状态，诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）处于空闲中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 11:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊输液中心护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>usera01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者002输液，系统自动记录成本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 11:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊输液中心护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>usera01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者002输液，系统自动记录成本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 11:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成当前全部执行条目，两条执行条目（一级护理和取药）【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成一级护理执行条目，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成三条执行条目（一级护理、输液两条【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%葡萄糖和头孢3两支组合医嘱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的两条的收费条目（二级护理和输液材料费）】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成一级护理执行条目，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-31 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成三条执行条目（一级护理、输液两条【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%葡萄糖和头孢3两支组合医嘱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的两条的收费条目（一级护理和输液材料费）】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-02 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成一级护理执行条目，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-03 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成一级护理执行条目，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-04 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成一级护理执行条目，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 10:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开立【2支头孢3+5%葡萄糖1袋】长期组合医嘱，上午九点下午三点各一次，用法为静脉注射，3天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-05 08:20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停止一级护理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-05 08:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开立二级护理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开一级护理长嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核对一级护理长嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-05 08:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核对二级护理长嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级护理（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>firstNursingChargeItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）一天22元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级护理（firstNursingOrderType）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配液中心（deptbbb）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五住院科室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五护士站（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staffb02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（配液中心配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关羽）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staffb01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（配液中心摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘禅）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staffb03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（配液中心发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诸葛亮）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头孢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugType002p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）配液中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>deptbbb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>葡萄糖液（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugType003p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）配液中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>deptbbb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中2000袋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 11:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送该长期组合医嘱到配液中心deptbbb</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 13:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行配液，【系统产生-240和-15两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 08:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行配液（上午九点），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-31 08:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行配液（上午九点），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行配液（下午三点），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊西药房部门（</t>
     </r>
     <r>
       <rPr>
@@ -3885,7 +6742,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中药房部门（dept888）</t>
+    <t>门诊中药房部门（dept888）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院西药房（deptccc）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff801</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（门诊中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭嘉）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3897,7 +6809,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>西药房摆药岗位</t>
+      <t>门诊西药房摆药岗位</t>
     </r>
     <r>
       <rPr>
@@ -3916,7 +6828,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（西药房摆药岗位</t>
+      <t>（门诊西药房摆药岗位</t>
     </r>
     <r>
       <rPr>
@@ -3958,7 +6870,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>西药房发药岗位</t>
+      <t>门诊西药房发药岗位</t>
     </r>
     <r>
       <rPr>
@@ -3977,7 +6889,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（西药房发药岗位</t>
+      <t>（门诊西药房发药岗位</t>
     </r>
     <r>
       <rPr>
@@ -4016,61 +6928,29 @@
         <sz val="9"/>
         <color rgb="FF2A00FF"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊收费部门收费员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff701</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（门诊收费部门收费员-魏延）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中药房摆发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff801</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（中药房摆发药岗位</t>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院西药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staffc01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（住院西药房摆药岗位</t>
     </r>
     <r>
       <rPr>
@@ -4089,7 +6969,218 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>郭嘉）</t>
+      <t>姜维）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staffc03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（住院西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>庞统）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿司匹林（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugType001I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）药房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>deptccc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中200盒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头孢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugType002I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）药房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>deptccc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4102,7 +7193,7 @@
         <sz val="9"/>
         <color rgb="FF2A00FF"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>葡萄糖液（</t>
@@ -4114,166 +7205,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>drugTypeSpec003ChargeItem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）一袋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天花粉（drugTypeSpec004ChargeItem）一克5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛根（drugTypeSpec005ChargeItem）一克3元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生地黄（drugTypeSpec006ChargeItem）一克4元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天花粉（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugTypeSpec004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>葛根（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugTypeSpec005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生地黄（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugTypeSpec006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天花粉（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugType004</t>
+      <t>drugType003I</t>
     </r>
     <r>
       <rPr>
@@ -4292,2629 +7224,17 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>dept888</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中2000克</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>葛根（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugType005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）药房</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept888</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>克</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生地黄（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugType006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）药房</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept888</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>克</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:54 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂号，被安排内分泌门诊一诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）就诊，系统创建账户，并收挂号费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:32 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>锁定患者001的门诊记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:28 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建诊断：甲状腺功能亢进（甲亢）、低血糖（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2.5mmol/L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:33 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者001开立草药方，关联甲状腺功能亢进（甲亢）、低血糖（2.5mmol/L），开药品004 20克，药品005 15克，药品006 100克</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:42 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊收费部门收费员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff701</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对患者001的药品临嘱收费575元（药品001，004、005、006）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:48 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>西药房发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff303</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取药（001）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:49 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中药房摆发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff801</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>摆药（004、005、006）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中药房摆发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff801</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>摆药（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 11:15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成摆药，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的药品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的收费条目，并创建相应的成本条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊输液中心（deptaaa）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊输液中心护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>nursea01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（门诊输液中心护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>甘夫人）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:35 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊执行中状态，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊就诊中状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:36 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生doctor002为患者002开立【2支头孢3+5%葡萄糖1袋】长期组合医嘱，上午十一点一次，用法为静脉注射，2天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:43 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊收费部门收费员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff701</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对患者002的药品长嘱收费524元（药品002，003各两项，003携带的辅材费2项，共6项）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:46 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>西药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和002摆药（001、002、003）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:48 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>西药房发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff303</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取药（002、003各两个）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 00:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统自动修改患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为离院状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 10:20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊执行中状态，诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）处于空闲中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 11:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊输液中心护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>usera01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者002输液，系统自动记录成本</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 11:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊输液中心护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>usera01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者002输液，系统自动记录成本</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 11:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成当前全部执行条目，两条执行条目（一级护理和取药）【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成一级护理执行条目，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成三条执行条目（一级护理、输液两条【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5%葡萄糖和头孢3两支组合医嘱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>】），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的两条的收费条目（二级护理和输液材料费）】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成一级护理执行条目，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-31 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成三条执行条目（一级护理、输液两条【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5%葡萄糖和头孢3两支组合医嘱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>】），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的两条的收费条目（一级护理和输液材料费）】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-02 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成一级护理执行条目，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-03 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成一级护理执行条目，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-04 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成一级护理执行条目，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 10:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开立【2支头孢3+5%葡萄糖1袋】长期组合医嘱，上午九点下午三点各一次，用法为静脉注射，3天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-05 08:20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停止一级护理</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-05 08:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开立二级护理</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开一级护理长嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:45 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>核对一级护理长嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-05 08:40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核对二级护理长嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级护理（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>firstNursingChargeItem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）一天22元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级护理（firstNursingOrderType）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配液中心（deptbbb）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五住院科室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五护士站（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept000n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staffb02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（配液中心配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关羽）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staffb01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（配液中心摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刘禅）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staffb03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（配液中心发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诸葛亮）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>头孢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugType002p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）配液中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>deptbbb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>葡萄糖液（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugType003p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）配液中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>deptbbb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中2000袋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 11:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发送该长期组合医嘱到配液中心deptbbb</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 13:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行配液，【系统产生-240和-15两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 08:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行配液（上午九点），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-31 08:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行配液（上午九点），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行配液（下午三点），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两条药品收费条目】</t>
+      <t>deptccc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中6000袋</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7305,10 +7625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B100"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7344,7 +7664,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -7369,17 +7689,17 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -7394,428 +7714,458 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>18</v>
+      <c r="B39" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
-        <v>177</v>
+      <c r="A42" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="2" t="s">
-        <v>133</v>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="2" t="s">
-        <v>134</v>
+      <c r="B47" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="2" t="s">
-        <v>135</v>
+      <c r="B48" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="1" t="s">
-        <v>25</v>
+      <c r="B49" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="1" t="s">
-        <v>60</v>
+      <c r="B50" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="2" t="s">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="2" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B76" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B81" s="3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>38</v>
+      <c r="B82" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>48</v>
+      <c r="B85" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B87" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B89" s="1" t="s">
-        <v>54</v>
+      <c r="B89" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
-        <v>55</v>
+      <c r="B90" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B92" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B93" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B95" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="1" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B98" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B93" s="1" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B99" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B94" s="2" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B100" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B96" s="3" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B102" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B97" s="3" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B103" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B99" s="3" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B105" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B100" s="3" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B106" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7871,7 +8221,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
@@ -7881,22 +8231,22 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
@@ -7906,45 +8256,45 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
@@ -7964,17 +8314,17 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
@@ -7999,7 +8349,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
@@ -8062,12 +8412,12 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -8115,12 +8465,12 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
@@ -8155,12 +8505,12 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
@@ -8170,12 +8520,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
@@ -8190,17 +8540,17 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
@@ -8210,7 +8560,7 @@
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
@@ -8220,12 +8570,12 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
@@ -8255,7 +8605,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
@@ -8265,7 +8615,7 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
@@ -8275,22 +8625,22 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -7092,149 +7092,6 @@
         <charset val="134"/>
       </rPr>
       <t>中200盒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>头孢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugType002I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）药房</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>deptccc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>葡萄糖液（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugType003I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）药房</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>deptccc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中6000袋</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7625,10 +7482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8009,163 +7866,153 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="A75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B77" s="1"/>
+      <c r="B77" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
-        <v>61</v>
+      <c r="A78" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="2" t="s">
-        <v>62</v>
+      <c r="B79" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>31</v>
+      <c r="B80" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B81" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B85" s="3" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B86" s="3" t="s">
-        <v>37</v>
+      <c r="A86" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B87" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>38</v>
+      <c r="B88" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B89" s="3" t="s">
-        <v>39</v>
+      <c r="A89" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>48</v>
+      <c r="B91" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="3" t="s">
-        <v>50</v>
+      <c r="A92" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B93" s="3" t="s">
-        <v>49</v>
+      <c r="B93" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>53</v>
+      <c r="B94" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B95" s="1" t="s">
-        <v>54</v>
+      <c r="A95" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>69</v>
+      <c r="B97" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B98" s="1" t="s">
-        <v>70</v>
+      <c r="B98" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B99" s="1" t="s">
-        <v>71</v>
+      <c r="A99" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B100" s="2" t="s">
-        <v>76</v>
+      <c r="B100" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>72</v>
+      <c r="B101" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B102" s="3" t="s">
-        <v>73</v>
+      <c r="A102" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B103" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B105" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B106" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>105</v>
       </c>
     </row>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:50 </t>
@@ -7153,6 +7153,26 @@
       </rPr>
       <t>元的一级护理的收费条目】</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配液中心配液批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院西药房摆发药批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午配液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院西药房摆药一天一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午配液</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7542,11 +7562,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8074,6 +8092,31 @@
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B104" s="3" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B106" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B107" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B109" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -8338,7 +8381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -8805,8 +8805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B109"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9373,7 +9373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B33"/>
     </sheetView>
   </sheetViews>
@@ -9574,8 +9574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9639,8 +9639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B44"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9877,8 +9877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>入院阶段：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4346,6 +4346,4242 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊西药房部门（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊中药房部门（dept888）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院西药房（deptccc）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff801</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（门诊中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭嘉）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊西药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff301</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（门诊西药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵云）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（门诊西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭嘉）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院西药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staffc01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（住院西药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姜维）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staffc03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（住院西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>庞统）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿司匹林（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drugType001I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）药房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>deptccc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中200盒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:42 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊收费部门收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff701</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对患者001的药品临嘱收费575元（药品001，004、005、006）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:46 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊西药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff301</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和002摆药（001、002、003）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:48 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取药（001）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:48 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊西药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取药（002、003各两个）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:49 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff801</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摆药（004、005、006）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 09:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊中药房摆发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff801</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摆药（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 13:45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>退费，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>+60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的药品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的退费条目，并收回成本】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配液中心配液批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院西药房摆发药批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午配液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院西药房摆药一天一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午配液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到收费处存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元预存住院费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>+2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的费用条目】，【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态为待接诊】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到收费处存3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元预存住院费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>+3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的费用条目】，【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态为待接诊】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到住院处办理住院，【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态为待预存费用】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 09:52 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患者004到住院处办理住院，【患者004状态为待预存费用】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到内泌五办理住院，【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态为在病房】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到内泌五办理住院，【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态为在病房】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-07 10:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开出院医嘱，出院时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2017-01-09</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-07 10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核对了对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的出院医嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 11:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核对了对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的出院医嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 11:02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成了出院登记执行条目，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态为待出院结算】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收费处岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成了一条执行条目（出院结算），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-527</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的费用条目】，【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态为已出院】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:56 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开药品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临嘱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 11:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001和004的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>药品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 11:15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>药房摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印摆药单，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成摆药，【系统产生001患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的药品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的收费条目，并创建相应的成本条目】【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的药品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的收费条目，并创建相应的成本条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 11:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>住院药房发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c03基于摆药单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成发药</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 11:32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生001患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目，产生004患者-8元的二级护理收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成四条执行条目（一级护理、输液两条【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%葡萄糖和头孢3两支组合医嘱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】），【系统产生001患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的两条的收费条目（一级护理和输液材料费）】【系统产生004患者-120元的药品001的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-31 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成四条执行条目（一级护理、输液两条【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>葡萄糖和头孢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两支组合医嘱】），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的两条的收费条目（一级护理和输液材料费）】【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的药品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目，产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-02 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目，产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-03 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目，产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-05 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理的收费条目，产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-07 10:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理的收费条目，产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-08 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理的收费条目，产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 09:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成了两条执行条目（001患者出院登记和004患者二级护理），【系统产生004患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的二级护理的收费条目】，【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态为待出院结算】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 11:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收费处岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成了一条执行条目（出院结算），【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>--2760</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的费用条目】，【患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态为已出院】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五和眼科一护士站（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼科一住院科室（deptddd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>眼科一医生doctord02（眼科一医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>司马懿）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五和眼科一护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>nurse003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（内泌五和眼科一护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小乔）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五和眼科一接诊护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>nurse001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（内泌五和眼科一接诊护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大乔）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转科医嘱（transferDeptOrderType）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者临时医嘱单（患者姓名，患者临嘱列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开一级护理长嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:42 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开二级护理长嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核对了两条护理医嘱（001的一级护理长嘱，004的二级护理长嘱）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-04 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目，产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开立了转科医嘱，转科科室为眼科一（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>deptddd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），立即执行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核对了该条转科医嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:33 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前收取的二级护理费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元钱退费</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成转科申请执行条目【系统将004设置为转科中】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-06 09:40 责任护士003完成转科确认执行条目【系统将004设置为在病房，科室为眼科一（deptddd），责任医生是doctord02，床位号是bedd04】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-06 09:50 责任医生d02为患者004开立二级护理医嘱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-06 09:55 责任护士003核对了该条护理医嘱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理的收费条目，产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:58 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前在眼科一（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>deptddd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）的护理医嘱【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的二级护理的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 10:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开出院医嘱，出院时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2017-01-09</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">2016-12-29 11:05 </t>
     </r>
     <r>
@@ -4375,13 +8611,67 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>发送该长期组合医嘱到配液中心deptbbb</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 13:05 </t>
+      <t>发送该长期组合医嘱到配液中心deptbbb（包括29号下午和30号上午的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 08:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病区下午的配液单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 08:55 </t>
     </r>
     <r>
       <rPr>
@@ -4410,13 +8700,102 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>进行配液，【系统产生-240和-15两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 08:50 </t>
+      <t>基于配液单进行配液（上午九点），【系统为患者001产生-240和-15两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 09:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认发送病区dept000n的液</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病区下午十五点的配液单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 14:30 </t>
     </r>
     <r>
       <rPr>
@@ -4445,45 +8824,166 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>进行配液（上午九点），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两条药品收费条目】</t>
+      <t>基于配液单进行配液，【系统为患者001产生-240和-15两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 14:35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认发送病区dept000n的液</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病区下午十五点的配液单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于配液单进行配液，【系统为患者001产生-240和-15两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 14:35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认发送病区dept000n的液</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4499,6 +8999,60 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>配液中心摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病区下午的配液单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-31 08:55 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>配液中心配液岗位</t>
     </r>
     <r>
@@ -4518,4354 +9072,42 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>进行配液（上午九点），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行配液（下午三点），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊西药房部门（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept333</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊中药房部门（dept888）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院西药房（deptccc）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊中药房摆发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff801</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（门诊中药房摆发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>郭嘉）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊西药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（门诊西药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赵云）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊西药房发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff303</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（门诊西药房发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>郭嘉）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>住院西药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staffc01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（住院西药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姜维）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>住院西药房发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staffc03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（住院西药房发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>庞统）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阿司匹林（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>drugType001I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）药房</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>deptccc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中200盒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:42 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊收费部门收费员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff701</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对患者001的药品临嘱收费575元（药品001，004、005、006）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:46 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊西药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和002摆药（001、002、003）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:48 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊西药房发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff303</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取药（001）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:48 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊西药房发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff303</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取药（002、003各两个）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:49 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊中药房摆发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff801</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>摆药（004、005、006）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 09:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊中药房摆发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff801</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>摆药（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 13:45 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>退费，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>+60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的药品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的退费条目，并收回成本】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配液中心配液批次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院西药房摆发药批次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午配液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院西药房摆药一天一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午配液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>到收费处存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元预存住院费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>+2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的费用条目】，【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态为待接诊】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:12 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到收费处存3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元预存住院费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>+3000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元的费用条目】，【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态为待接诊】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>到住院处办理住院，【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态为待预存费用】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 09:52 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患者004到住院处办理住院，【患者004状态为待预存费用】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>到内泌五办理住院，【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态为在病房】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:32 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到内泌五办理住院，【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态为在病房】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-07 10:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开出院医嘱，出院时间为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2017-01-09</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-07 10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>核对了对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的出院医嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 11:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核对了对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的出院医嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 11:02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成了出院登记执行条目，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态为待出院结算】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>收费处岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成了一条执行条目（出院结算），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-527</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的费用条目】，【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>状态为已出院】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:56 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开药品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>临嘱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 11:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>核对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001和004的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>药品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>临嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 11:15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>住院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>药房摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打印摆药单，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成摆药，【系统产生001患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的药品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的收费条目，并创建相应的成本条目】【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的药品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的收费条目，并创建相应的成本条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 11:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>住院药房发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c03基于摆药单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成发药</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 11:32 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生001患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目，产生004患者-8元的二级护理收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成四条执行条目（一级护理、输液两条【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5%葡萄糖和头孢3两支组合医嘱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>】），【系统产生001患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的两条的收费条目（一级护理和输液材料费）】【系统产生004患者-120元的药品001的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-31 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成四条执行条目（一级护理、输液两条【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>葡萄糖和头孢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>两支组合医嘱】），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的两条的收费条目（一级护理和输液材料费）】【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的药品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-02 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-03 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-05 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-07 10:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-08 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 09:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成了两条执行条目（001患者出院登记和004患者二级护理），【系统产生004患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元的二级护理的收费条目】，【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态为待出院结算】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 11:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收费处岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成了一条执行条目（出院结算），【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>--2760</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元的费用条目】，【患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态为已出院】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五和眼科一护士站（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept000n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼科一住院科室（deptddd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>眼科一医生doctord02（眼科一医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>司马懿）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五和眼科一护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>nurse003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（内泌五和眼科一护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小乔）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五和眼科一接诊护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>nurse001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（内泌五和眼科一接诊护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大乔）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转科医嘱（transferDeptOrderType）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者临时医嘱单（患者姓名，患者临嘱列表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开一级护理长嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:42 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开二级护理长嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:45 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>核对了两条护理医嘱（001的一级护理长嘱，004的二级护理长嘱）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-04 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开立了转科医嘱，转科科室为眼科一（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>deptddd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），立即执行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:32 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核对了该条转科医嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:33 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前收取的二级护理费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元钱退费</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:35 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成转科申请执行条目【系统将004设置为转科中】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-06 09:40 责任护士003完成转科确认执行条目【系统将004设置为在病房，科室为眼科一（deptddd），责任医生是doctord02，床位号是bedd04】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-06 09:50 责任医生d02为患者004开立二级护理医嘱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-06 09:55 责任护士003核对了该条护理医嘱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:58 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前在眼科一（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>deptddd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）的护理医嘱【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元的二级护理的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 10:40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开出院医嘱，出院时间为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2017-01-09</t>
+      <t>基于配液单进行配液（上午九点），【系统为患者001产生-240和-15两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-31 09:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认发送病区dept000n的液</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9295,7 +9537,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -9320,7 +9562,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -9330,12 +9572,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -9360,7 +9602,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -9380,12 +9622,12 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -9420,12 +9662,12 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -9435,7 +9677,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -9450,7 +9692,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -9475,12 +9717,12 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -9646,7 +9888,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -9707,7 +9949,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -9787,7 +10029,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B104" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -9807,27 +10049,27 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B109" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B110" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B112" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -9917,7 +10159,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
         <v>124</v>
@@ -9930,27 +10172,27 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
@@ -10058,47 +10300,47 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -10110,10 +10352,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B52"/>
+  <dimension ref="B1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10136,12 +10378,12 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
@@ -10151,17 +10393,17 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
@@ -10171,7 +10413,7 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
@@ -10196,7 +10438,7 @@
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
@@ -10211,172 +10453,212 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="4" t="s">
-        <v>152</v>
+      <c r="B25" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="4" t="s">
-        <v>35</v>
+      <c r="B26" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
-        <v>36</v>
+      <c r="B27" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="4" t="s">
-        <v>191</v>
+      <c r="B29" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
-        <v>53</v>
+      <c r="B30" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="4" t="s">
-        <v>54</v>
+      <c r="B31" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="4" t="s">
-        <v>75</v>
+      <c r="B34" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="4" t="s">
-        <v>193</v>
+      <c r="B35" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="4" t="s">
-        <v>77</v>
+      <c r="B36" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>212</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -10390,7 +10672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -10406,52 +10688,52 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
